--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_full/ifoCAst_errors_full_latest_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_full/ifoCAst_errors_full_latest_GVA.xlsx
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.816891830521575</v>
+        <v>1.826271637843651</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1.897212982521575</v>
+        <v>1.906592789843651</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.901570861521575</v>
+        <v>1.910950668843651</v>
       </c>
       <c r="D4">
         <v>9.98107565013016</v>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.443333922521575</v>
+        <v>2.452713729843651</v>
       </c>
       <c r="D5">
         <v>10.22617361813016</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1.797043391521575</v>
+        <v>1.806423198843651</v>
       </c>
       <c r="D6">
         <v>8.666280037130161</v>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.444790623521575</v>
+        <v>1.454170430843651</v>
       </c>
       <c r="C7">
         <v>8.791689953130161</v>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.517932831521575</v>
+        <v>1.527312638843651</v>
       </c>
       <c r="C8">
         <v>8.00609754113016</v>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.211787045478425</v>
+        <v>-0.2024072381563491</v>
       </c>
       <c r="C9">
         <v>5.144812368130161</v>
@@ -1294,7 +1294,7 @@
         <v>-1.80579521303635</v>
       </c>
       <c r="D46">
-        <v>0.3911762948727402</v>
+        <v>0.4006729710360878</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1305,7 +1305,7 @@
         <v>-1.79791510303635</v>
       </c>
       <c r="D47">
-        <v>0.3818274538727402</v>
+        <v>0.3913241300360878</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>-0.7329669010363498</v>
       </c>
       <c r="D48">
-        <v>0.06591665687274018</v>
+        <v>0.07541333303608777</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1327,7 +1327,7 @@
         <v>-0.5952481090363498</v>
       </c>
       <c r="D49">
-        <v>0.1054575368727402</v>
+        <v>0.1149542130360878</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>-0.2827377510363498</v>
       </c>
       <c r="C50">
-        <v>0.6917595708727402</v>
+        <v>0.7012562470360878</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1349,7 +1349,7 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="C51">
-        <v>1.01983578087274</v>
+        <v>1.029332457036088</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1357,7 +1357,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>1.47593188287274</v>
+        <v>1.485428559036088</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>1.82244659987274</v>
+        <v>1.831943276036088</v>
       </c>
       <c r="D53">
-        <v>0.5768032504259835</v>
+        <v>0.55793444658209</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1376,10 +1376,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
       <c r="D54">
-        <v>0.4630429864259835</v>
+        <v>0.44417418258209</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1387,10 +1387,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>0.1547615318727402</v>
+        <v>0.1642582080360878</v>
       </c>
       <c r="D55">
-        <v>-0.5234501085740164</v>
+        <v>-0.54231891241791</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1398,10 +1398,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.1662691598727403</v>
+        <v>0.1757658360360879</v>
       </c>
       <c r="C56">
-        <v>-0.6129279025740164</v>
+        <v>-0.63179670641791</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1409,10 +1409,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C57">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1420,7 +1420,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0.4632009824259835</v>
+        <v>0.44433217858209</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1428,10 +1428,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>0.6250845884259835</v>
+        <v>0.6062157845820899</v>
       </c>
       <c r="D59">
-        <v>-0.8692087693002357</v>
+        <v>-0.8596988570317647</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1439,10 +1439,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D60">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1450,10 +1450,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>0.7590080824259835</v>
+        <v>0.7401392785820899</v>
       </c>
       <c r="D61">
-        <v>-1.052783137300236</v>
+        <v>-1.043273225031765</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1461,10 +1461,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.6692890444259836</v>
+        <v>0.65042024058209</v>
       </c>
       <c r="C62">
-        <v>-0.6043264833002358</v>
+        <v>-0.5948165710317647</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1472,10 +1472,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C63">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-1.553433993300236</v>
+        <v>-1.543924081031765</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>-1.206659537300236</v>
+        <v>-1.197149625031765</v>
       </c>
       <c r="D65">
         <v>0.2761568752907124</v>
@@ -1502,7 +1502,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D66">
         <v>0.2901758192907124</v>
@@ -1513,7 +1513,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-1.147112214300236</v>
+        <v>-1.137602302031765</v>
       </c>
       <c r="D67">
         <v>0.03860501029071239</v>
@@ -1524,7 +1524,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>-1.046637463300236</v>
+        <v>-1.037127551031765</v>
       </c>
       <c r="C68">
         <v>0.1111587992907124</v>
@@ -1535,7 +1535,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C69">
         <v>-0.1494795197092876</v>
@@ -1557,7 +1557,7 @@
         <v>-0.2465114727092876</v>
       </c>
       <c r="D71">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>-0.1527522857092876</v>
       </c>
       <c r="D72">
-        <v>1.021733445264559</v>
+        <v>1.031128409563699</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1579,7 +1579,7 @@
         <v>0.1761002812907124</v>
       </c>
       <c r="D73">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1590,7 +1590,7 @@
         <v>0.3872948832907124</v>
       </c>
       <c r="D74">
-        <v>1.007430421264559</v>
+        <v>1.0168253855637</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1601,7 +1601,7 @@
         <v>0.07584049829071239</v>
       </c>
       <c r="C75">
-        <v>1.044581212264559</v>
+        <v>1.053976176563699</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C76">
-        <v>1.084237634264559</v>
+        <v>1.093632598563699</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1620,7 +1620,7 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>1.115150976264559</v>
+        <v>1.124545940563699</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1628,10 +1628,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>1.061389726264559</v>
+        <v>1.0707846905637</v>
       </c>
       <c r="D78">
-        <v>0.917316073331129</v>
+        <v>0.8985202055291455</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1639,10 +1639,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D79">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1650,10 +1650,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0.948548502264559</v>
+        <v>0.9579434665636994</v>
       </c>
       <c r="D80">
-        <v>0.9175539353311289</v>
+        <v>0.8987580675291454</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1661,10 +1661,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1.065726943264559</v>
+        <v>1.0751219075637</v>
       </c>
       <c r="C81">
-        <v>1.277716814331129</v>
+        <v>1.258920946529146</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1672,10 +1672,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C82">
-        <v>1.512218933331129</v>
+        <v>1.493423065529146</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1683,7 +1683,7 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1691,10 +1691,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>0.565715018331129</v>
+        <v>0.5469191505291455</v>
       </c>
       <c r="D84">
-        <v>-0.9912397121624527</v>
+        <v>-0.9817231827224345</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1702,10 +1702,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>0.630238413331129</v>
+        <v>0.6114425455291455</v>
       </c>
       <c r="D85">
-        <v>-0.9949620201624526</v>
+        <v>-0.9854454907224345</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D86">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1724,10 +1724,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>-0.1155150876688711</v>
+        <v>-0.1343109554708546</v>
       </c>
       <c r="D87">
-        <v>-1.095200516162453</v>
+        <v>-1.085683986722434</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1735,10 +1735,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.441822470331129</v>
+        <v>0.4230266025291455</v>
       </c>
       <c r="C88">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1746,10 +1746,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C89">
-        <v>-0.2426789321624527</v>
+        <v>-0.2331624027224345</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1757,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>-0.04277888716245271</v>
+        <v>-0.03326235772243452</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1765,10 +1765,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-0.2873174671624527</v>
+        <v>-0.2778009377224345</v>
       </c>
       <c r="D91">
-        <v>-1.175091466501868</v>
+        <v>-1.165608299123972</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1776,10 +1776,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D92">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1787,10 +1787,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-0.7198939821624527</v>
+        <v>-0.7103774527224346</v>
       </c>
       <c r="D93">
-        <v>-1.010277427205538</v>
+        <v>-1.000794259827642</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1798,10 +1798,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.5106281321624527</v>
+        <v>-0.5011116027224345</v>
       </c>
       <c r="C94">
-        <v>-0.6514899233638731</v>
+        <v>-0.6420067559859775</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1809,10 +1809,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C95">
-        <v>-0.7765103153922351</v>
+        <v>-0.7670271480143395</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1828,10 +1828,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>-0.8586530331632335</v>
+        <v>-0.8491698657853378</v>
       </c>
       <c r="D97">
-        <v>0.8525830535100106</v>
+        <v>0.8526545954887239</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1839,10 +1839,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D98">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1850,10 +1850,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>-1.43992425523589</v>
+        <v>-1.430441087857995</v>
       </c>
       <c r="D99">
-        <v>0.8814661535100106</v>
+        <v>0.8815376954887238</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1861,10 +1861,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>-1.227393148335633</v>
+        <v>-1.217909980957737</v>
       </c>
       <c r="C100">
-        <v>0.8720822335100106</v>
+        <v>0.8721537754887239</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1872,10 +1872,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C101">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1883,7 +1883,7 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>0.6389953595100106</v>
+        <v>0.6390669014887239</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1891,10 +1891,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D103">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1902,10 +1902,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>0.2427957485100106</v>
+        <v>0.2428672904887239</v>
       </c>
       <c r="D104">
-        <v>0.3237316254848366</v>
+        <v>0.3048056840934801</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1913,10 +1913,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>0.5513600815100106</v>
+        <v>0.5514316234887239</v>
       </c>
       <c r="D105">
-        <v>0.4532827094848366</v>
+        <v>0.4343567680934801</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1924,10 +1924,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0.3147768615100106</v>
+        <v>0.3148484034887239</v>
       </c>
       <c r="C106">
-        <v>1.007337400484837</v>
+        <v>0.9884114590934802</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1935,10 +1935,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C107">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>0.6398731814848366</v>
+        <v>0.6209472400934801</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1954,10 +1954,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>0.9196994354848367</v>
+        <v>0.9007734940934802</v>
       </c>
       <c r="D109">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D110">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1976,10 +1976,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>0.2304598224848366</v>
+        <v>0.2115338810934801</v>
       </c>
       <c r="D111">
-        <v>0.4693786418064123</v>
+        <v>0.4788276257131937</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.06955711048483661</v>
+        <v>0.0506311690934801</v>
       </c>
       <c r="C112">
-        <v>-0.2052381541935878</v>
+        <v>-0.1957891702868064</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1998,10 +1998,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C113">
-        <v>-0.5895316931935877</v>
+        <v>-0.5800827092868064</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2009,7 +2009,7 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>-0.2099133951935877</v>
+        <v>-0.2004644112868063</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2017,7 +2017,7 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D115">
         <v>0.5381773248377819</v>
@@ -2028,7 +2028,7 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>-0.5022237831935876</v>
+        <v>-0.4927747992868063</v>
       </c>
       <c r="D116">
         <v>0.6060294938377819</v>
@@ -2039,7 +2039,7 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>-0.3513784001935877</v>
+        <v>-0.3419294162868063</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>-0.3153648271935877</v>
+        <v>-0.3059158432868063</v>
       </c>
       <c r="C119">
         <v>1.143160669837782</v>
@@ -2066,7 +2066,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C120">
         <v>1.142129412837782</v>
@@ -2088,7 +2088,7 @@
         <v>1.107268178837782</v>
       </c>
       <c r="D122">
-        <v>-0.4561009603890247</v>
+        <v>-0.4083682634916527</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2099,7 +2099,7 @@
         <v>1.003824619837782</v>
       </c>
       <c r="D123">
-        <v>-0.5811445523890247</v>
+        <v>-0.5334118554916527</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,7 +2110,7 @@
         <v>0.411496762837782</v>
       </c>
       <c r="D124">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2121,7 +2121,7 @@
         <v>-0.007047367162217988</v>
       </c>
       <c r="D125">
-        <v>-0.8128361843890247</v>
+        <v>-0.7651034874916527</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2132,7 +2132,7 @@
         <v>0.443267296837782</v>
       </c>
       <c r="C126">
-        <v>-0.2856949653890247</v>
+        <v>-0.2379622684916527</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2143,7 +2143,7 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C127">
-        <v>-0.4612755963890247</v>
+        <v>-0.4135428994916527</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2151,7 +2151,7 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2159,10 +2159,10 @@
         <v>130</v>
       </c>
       <c r="C129">
-        <v>-0.2513871743890247</v>
+        <v>-0.2036544774916527</v>
       </c>
       <c r="D129">
-        <v>0.7031119392360052</v>
+        <v>0.5987332491758083</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2170,10 +2170,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>-0.2476045163890248</v>
+        <v>-0.1998718194916527</v>
       </c>
       <c r="D130">
-        <v>0.7145379752360053</v>
+        <v>0.6101592851758083</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2181,10 +2181,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D131">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2192,10 +2192,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>-0.009821497389024714</v>
+        <v>0.03791119950834732</v>
       </c>
       <c r="D132">
-        <v>0.6959160192360053</v>
+        <v>0.5915373291758083</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>-0.1033763483890247</v>
+        <v>-0.05564365149165268</v>
       </c>
       <c r="C133">
-        <v>0.5174219002360053</v>
+        <v>0.4130432101758083</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2214,10 +2214,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C134">
-        <v>-0.2244860877639947</v>
+        <v>-0.3288647778241918</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2225,7 +2225,7 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>0.1542060022360053</v>
+        <v>0.04982731217580827</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2233,7 +2233,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0.4412813462360053</v>
+        <v>0.3369026561758083</v>
+      </c>
+      <c r="D136">
+        <v>0.7254492243564907</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2241,7 +2244,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>0.4689256712360053</v>
+        <v>0.3645469811758083</v>
+      </c>
+      <c r="D137">
+        <v>0.7215746373564907</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2249,7 +2255,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>0.2280757452360053</v>
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D138">
+        <v>0.5311946523564907</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2257,7 +2266,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>0.3139414512360053</v>
+        <v>0.2095627611758083</v>
+      </c>
+      <c r="D139">
+        <v>0.5539812373564907</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2265,7 +2277,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.02261627023600529</v>
+        <v>-0.08176241982419175</v>
+      </c>
+      <c r="C140">
+        <v>0.1753415943564907</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2273,27 +2288,42 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>-0.0212972287639947</v>
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C141">
+        <v>0.2651053283564908</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="C142">
+        <v>0.08763596535649075</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C143">
+        <v>0.1003532183564907</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>-0.02418658464350926</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="C145">
+        <v>0.2001520573564908</v>
       </c>
     </row>
   </sheetData>
